--- a/minimal-example/ig/StructureDefinition-ActorParent.xlsx
+++ b/minimal-example/ig/StructureDefinition-ActorParent.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="86">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T07:07:29+00:00</t>
+    <t>2025-05-06T07:36:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -265,6 +265,16 @@
   </si>
   <si>
     <t>author/assignedAuthor/id@extension</t>
+  </si>
+  <si>
+    <t>ActorParent.XCN3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Prénom usuel de la personne (par défaut le premier prénom), nom du modèle pour les dispositifs ou dénomination pour les autres systèmes.</t>
   </si>
 </sst>
 </file>
@@ -569,7 +579,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK3"/>
+  <dimension ref="A1:AK4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -935,6 +945,109 @@
         <v>82</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L4" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="M4" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q4" s="2"/>
+      <c r="R4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK4" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/minimal-example/ig/StructureDefinition-ActorParent.xlsx
+++ b/minimal-example/ig/StructureDefinition-ActorParent.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="89">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T07:36:08+00:00</t>
+    <t>2025-05-06T08:04:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -265,6 +265,16 @@
   </si>
   <si>
     <t>author/assignedAuthor/id@extension</t>
+  </si>
+  <si>
+    <t>ActorParent.XCN10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Type de nom : Valeur en fonction de l’auteur : D, pour les personnes physiques, • U, pour les systèmes.</t>
   </si>
   <si>
     <t>ActorParent.XCN3</t>
@@ -579,7 +589,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK4"/>
+  <dimension ref="A1:AK5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1048,6 +1058,109 @@
         <v>73</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF5" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK5" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/minimal-example/ig/StructureDefinition-ActorParent.xlsx
+++ b/minimal-example/ig/StructureDefinition-ActorParent.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="90">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T08:04:12+00:00</t>
+    <t>2025-05-06T12:03:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -275,6 +275,9 @@
   </si>
   <si>
     <t>Type de nom : Valeur en fonction de l’auteur : D, pour les personnes physiques, • U, pour les systèmes.</t>
+  </si>
+  <si>
+    <t>U</t>
   </si>
   <si>
     <t>ActorParent.XCN3</t>
@@ -1001,7 +1004,7 @@
         <v>73</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="T4" t="s" s="2">
         <v>73</v>
@@ -1060,10 +1063,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1086,13 +1089,13 @@
         <v>73</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1143,7 +1146,7 @@
         <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>79</v>

--- a/minimal-example/ig/StructureDefinition-ActorParent.xlsx
+++ b/minimal-example/ig/StructureDefinition-ActorParent.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="89">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T12:03:39+00:00</t>
+    <t>2025-05-06T12:29:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -257,14 +257,24 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">string {https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Choice1|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Choice2|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Choice3}
+    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Choice1
+https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Choice2https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Choice3</t>
+  </si>
+  <si>
+    <t>Identifiant de l'acteur</t>
+  </si>
+  <si>
+    <t>author/assignedAuthor/id@extension</t>
+  </si>
+  <si>
+    <t>ActorParent.XCN3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Identifiant de l'acteur</t>
-  </si>
-  <si>
-    <t>author/assignedAuthor/id@extension</t>
+    <t>Prénom usuel de la personne (par défaut le premier prénom), nom du modèle pour les dispositifs ou dénomination pour les autres systèmes.</t>
   </si>
   <si>
     <t>ActorParent.XCN10</t>
@@ -275,19 +285,6 @@
   </si>
   <si>
     <t>Type de nom : Valeur en fonction de l’auteur : D, pour les personnes physiques, • U, pour les systèmes.</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>ActorParent.XCN3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Prénom usuel de la personne (par défaut le premier prénom), nom du modèle pour les dispositifs ou dénomination pour les autres systèmes.</t>
   </si>
 </sst>
 </file>
@@ -611,7 +608,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="189.0703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="120.96484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1004,7 +1001,7 @@
         <v>73</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="T4" t="s" s="2">
         <v>73</v>
@@ -1063,10 +1060,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1089,13 +1086,13 @@
         <v>73</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="L5" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="M5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1146,7 +1143,7 @@
         <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>79</v>
